--- a/数据整理/stocks/港股/03323-中国建材.xlsx
+++ b/数据整理/stocks/港股/03323-中国建材.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>004263</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>华安沪港深机会灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>45.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007505</t>
+          <t>007207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证AH经济蓝筹股票指数A</t>
+          <t>华夏常阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>52.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007506</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证AH经济蓝筹股票指数C</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007207</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏常阳三年定期开放混合</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.86</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004263</t>
+          <t>007505</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安沪港深机会灵活配置混合</t>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>007506</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007505</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证AH经济蓝筹股票指数A</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -734,25 +824,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007506</t>
+          <t>007505</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证AH经济蓝筹股票指数C</t>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>007506</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -800,15 +910,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.53</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03323-中国建材.xlsx
+++ b/数据整理/stocks/港股/03323-中国建材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03323-中国建材.xlsx
+++ b/数据整理/stocks/港股/03323-中国建材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03323-中国建材.xlsx
+++ b/数据整理/stocks/港股/03323-中国建材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03323-中国建材.xlsx
+++ b/数据整理/stocks/港股/03323-中国建材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.11</v>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03323-中国建材.xlsx
+++ b/数据整理/stocks/港股/03323-中国建材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1837,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +1849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1884,14 +1927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.11</v>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1900,14 +1965,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1916,14 +2003,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.16</v>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1932,13 +2041,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03323-中国建材.xlsx
+++ b/数据整理/stocks/港股/03323-中国建材.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.75</v>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2587,14 +2630,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2603,14 +2668,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.11</v>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2619,14 +2706,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2635,14 +2744,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.16</v>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2651,13 +2782,639 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03323-中国建材.xlsx
+++ b/数据整理/stocks/港股/03323-中国建材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.19</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>2.75</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.12</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2041,7 +2646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2799,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2931,7 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3139,7 +3744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03323-中国建材.xlsx
+++ b/数据整理/stocks/港股/03323-中国建材.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.19</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.75</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.12</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2539</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +1865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1944,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2646,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2892,7 +3553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3404,7 +4065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3536,7 +4197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3742,288 +4403,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004263</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安沪港深机会灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>45.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1412</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007207</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏常阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>52.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7475</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1393</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006768</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安沪港深优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007505</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏中证AH经济蓝筹股票指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007506</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏中证AH经济蓝筹股票指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>